--- a/data/Paciente.xlsx
+++ b/data/Paciente.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blasferp\Documents\GitHub\Hospital\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blasferp\Documents\GitHub\Sanatorio-Ingreso-Camas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B90738-7138-4702-8364-E25BD08B579D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659889BE-330D-40E3-85B7-0EF63723E41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>DNI</t>
   </si>
@@ -67,99 +67,12 @@
   </si>
   <si>
     <t>HORA REGISTRO</t>
-  </si>
-  <si>
-    <t>MICAELA</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>APOLINAR</t>
-  </si>
-  <si>
-    <t>HORTENSIA</t>
-  </si>
-  <si>
-    <t>SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLQUI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAVO </t>
-  </si>
-  <si>
-    <t>23/07/1942</t>
-  </si>
-  <si>
-    <t>13/06/1944</t>
-  </si>
-  <si>
-    <t>20/06/2024</t>
-  </si>
-  <si>
-    <t>31/05/2024</t>
-  </si>
-  <si>
-    <t>27/06/2024</t>
-  </si>
-  <si>
-    <t>23/06/2024</t>
-  </si>
-  <si>
-    <t>PARALISIS CEREBRAL - POSTRADA CRONICA</t>
-  </si>
-  <si>
-    <t>HTA TABAQUISTA</t>
-  </si>
-  <si>
-    <t>HTA DBT IRC</t>
-  </si>
-  <si>
-    <t>HTA DBT</t>
-  </si>
-  <si>
-    <t>SHOCK SEPTICO CON NEOMONIA + DERRAME + NEUMOTORAX +ITU</t>
-  </si>
-  <si>
-    <t>HEMATOMA INTRAPARENQUIMATOSO LENTICULAR DERECHO + NEUMONIA BILATERAL COMPLICADA CON DERRAME A PREDOMIO IZQUIERDO</t>
-  </si>
-  <si>
-    <t>SHOCK SEPTICO - NEUMONIA BILATERARL CON DERRAME PLEURAL BILATERAL - FRC</t>
-  </si>
-  <si>
-    <t>POP DE AMPUTACION SUPRA CONDILEA DE MIEMBRO INFERIOR IZQUIERDO</t>
-  </si>
-  <si>
-    <t>MARIA CECILIA PACIOS</t>
-  </si>
-  <si>
-    <t>26/07/2024</t>
-  </si>
-  <si>
-    <t>12:19:11</t>
-  </si>
-  <si>
-    <t>12:57:28</t>
-  </si>
-  <si>
-    <t>13:01:03</t>
-  </si>
-  <si>
-    <t>13:02:47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,12 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,158 +528,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>38246918</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>34470</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>38246918</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>69</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>19982</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>8190693</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>82</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4929402</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>80</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
